--- a/docs/Athos - Carpeta de proyecto/planilla de riesgos.xlsx
+++ b/docs/Athos - Carpeta de proyecto/planilla de riesgos.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santo\Documents\Integracion de Sistemas\is\docs\Athos - Carpeta de proyecto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18913946-137A-4796-B7EF-DA4B8F025770}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,191 +27,173 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DETALLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGNITUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROBABILIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCIONES DE MITIGACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCIONES DE CONTINGENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPACTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abandono de un integrante del equipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alguno de los miembros del equipo deja el proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversaciones constantes con el equipo para poder estar enterado de la situación con anticipación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redistribuir las tareas que le eran asignadas al integrante que se fue entre el resto del equipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disminución del rendimiento del equipo, probable retraso en las entregas y rearmado de la distribución de las tareas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riesgo del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta de experiencia en tareas de planificación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El grupo tiene poca experiencia en el desarrollo de software siguiendo una estructura de tareas y fechas preestablecido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muy probable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantener conversaciones frecuentes entre los miembros del proyecto para
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>DETALLE</t>
+  </si>
+  <si>
+    <t>MAGNITUD</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD</t>
+  </si>
+  <si>
+    <t>ACCIONES DE MITIGACIÓN</t>
+  </si>
+  <si>
+    <t>ACCIONES DE CONTINGENCIA</t>
+  </si>
+  <si>
+    <t>IMPACTO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>Abandono de un integrante del equipo</t>
+  </si>
+  <si>
+    <t>Alguno de los miembros del equipo deja el proyecto</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>Probable</t>
+  </si>
+  <si>
+    <t>Conversaciones constantes con el equipo para poder estar enterado de la situación con anticipación</t>
+  </si>
+  <si>
+    <t>Redistribuir las tareas que le eran asignadas al integrante que se fue entre el resto del equipo</t>
+  </si>
+  <si>
+    <t>Disminución del rendimiento del equipo, probable retraso en las entregas y rearmado de la distribución de las tareas</t>
+  </si>
+  <si>
+    <t>Riesgo del proyecto</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>Falta de experiencia en tareas de planificación</t>
+  </si>
+  <si>
+    <t>El grupo tiene poca experiencia en el desarrollo de software siguiendo una estructura de tareas y fechas preestablecido</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>Muy probable</t>
+  </si>
+  <si>
+    <t>Mantener conversaciones frecuentes entre los miembros del proyecto para
 la evaluación de la marcha del proyecto</t>
   </si>
   <si>
-    <t xml:space="preserve">Se observarán las diferencias entre la planificación de cada iteración y el informe de seguimiento de su ejecución, analizando las causas de sus diferencias para tratar de detectar y corregir errores de planificación en las iteraciones posteriores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprints con sobrecarga de trabajo que pueden llevar al no cumplimiento del cronograma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño erróneo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El diseño del sistema resulta inadecuado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se mantendrá una comunicación constante con todo el equipo para poder corroborar que el diseño sea el adecuado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se estudiará una solución acorde a los tiempos de plazo de que se dispone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puede introducir retrasos en el proyecto ante la necesidad de volver a considerar el diseño trazado.
+    <t>Se observarán las diferencias entre la planificación de cada iteración y el informe de seguimiento de su ejecución, analizando las causas de sus diferencias para tratar de detectar y corregir errores de planificación en las iteraciones posteriores</t>
+  </si>
+  <si>
+    <t>Sprints con sobrecarga de trabajo que pueden llevar al no cumplimiento del cronograma</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>Diseño erróneo</t>
+  </si>
+  <si>
+    <t>El diseño del sistema resulta inadecuado</t>
+  </si>
+  <si>
+    <t>Se mantendrá una comunicación constante con todo el equipo para poder corroborar que el diseño sea el adecuado</t>
+  </si>
+  <si>
+    <t>Se estudiará una solución acorde a los tiempos de plazo de que se dispone</t>
+  </si>
+  <si>
+    <t>Puede introducir retrasos en el proyecto ante la necesidad de volver a considerar el diseño trazado.
 Requiere la actualización o modificación de los artefactos de diseño</t>
   </si>
   <si>
-    <t xml:space="preserve">R04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pérdida de documentación y/o otros artefactos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por causas varias se pierde parte o el total de la documentación así como la posibilidad de perder parte o el total de otros artefactos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poco probable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se mantendrá la docupentación en un repositorio de reversionado en un servidor remoto y una copia local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se actualizará el trabajo desde la última copia disponible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable, puede suponer una catástrofe, o un simple retraso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflictos entre los integrantes del grupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aparición de problemas y discrepancias entre los miembros del proyecto. Falta de acuerdo en las decisiones tomadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada vez que se fije un punto de dirección en el proyecto, todo tiene que quedar totalmente claro, sin dudas y con la aceptación total de todos los miembros del grupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ante algún nuevo desacuerdo, se consultara a algun especialista en la materia y se tendrá en cuenta su opinión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si los desacuerdos no son rápidamente resueltos se pueden provocar retrasos en la planificación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subestimación de alguna tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se sobreestiman o subestiman las tareas involucradas en el desarrollo del producto de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luego de la retrospectiva de cada Sprint se revisará el cronograma, para ajustar las estimaciones en base a lo aprendido en el Sprint anterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reajuste del alcance del proyecto conforme se va desarrollando y nuevas funcionalidades se agregan o se eliminan. Medición de tiempos de cada tarea en cada sprint para ir ajustando las estimaciones.</t>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>Pérdida de documentación y/o otros artefactos</t>
+  </si>
+  <si>
+    <t>Por causas varias se pierde parte o el total de la documentación así como la posibilidad de perder parte o el total de otros artefactos</t>
+  </si>
+  <si>
+    <t>Poco probable</t>
+  </si>
+  <si>
+    <t>Se mantendrá la docupentación en un repositorio de reversionado en un servidor remoto y una copia local</t>
+  </si>
+  <si>
+    <t>Se actualizará el trabajo desde la última copia disponible</t>
+  </si>
+  <si>
+    <t>Variable, puede suponer una catástrofe, o un simple retraso</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Conflictos entre los integrantes del grupo</t>
+  </si>
+  <si>
+    <t>Aparición de problemas y discrepancias entre los miembros del proyecto. Falta de acuerdo en las decisiones tomadas</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>Cada vez que se fije un punto de dirección en el proyecto, todo tiene que quedar totalmente claro, sin dudas y con la aceptación total de todos los miembros del grupo</t>
+  </si>
+  <si>
+    <t>Ante algún nuevo desacuerdo, se consultara a algun especialista en la materia y se tendrá en cuenta su opinión</t>
+  </si>
+  <si>
+    <t>Si los desacuerdos no son rápidamente resueltos se pueden provocar retrasos en la planificación</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>Subestimación de alguna tarea</t>
+  </si>
+  <si>
+    <t>Se sobreestiman o subestiman las tareas involucradas en el desarrollo del producto de software</t>
+  </si>
+  <si>
+    <t>Luego de la retrospectiva de cada Sprint se revisará el cronograma, para ajustar las estimaciones en base a lo aprendido en el Sprint anterior</t>
+  </si>
+  <si>
+    <t>Reajuste del alcance del sprint conforme se va desarrollando y nuevas funcionalidades se agregan o se eliminan. Medición de tiempos de cada tarea en cada sprint para ir ajustando las estimaciones.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -250,7 +237,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -258,81 +245,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -391,37 +341,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AN14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.96428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.3265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.7551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.1428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.5204081632653"/>
+    <col min="1" max="1" width="6" style="1"/>
+    <col min="2" max="2" width="17" style="1"/>
+    <col min="3" max="3" width="24.88671875" style="1"/>
+    <col min="4" max="4" width="11.77734375" style="1"/>
+    <col min="5" max="5" width="15.5546875" style="1"/>
+    <col min="6" max="6" width="30.33203125" style="1"/>
+    <col min="7" max="7" width="33.77734375" style="1"/>
+    <col min="8" max="8" width="25.109375" style="1"/>
+    <col min="9" max="9" width="11.21875" style="1"/>
+    <col min="10" max="1025" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="94.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -479,7 +737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="94.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -508,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="94.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -537,7 +795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" ht="94.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -566,7 +824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="94.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -595,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="94.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:40" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -655,12 +913,11 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="71.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" spans="1:40" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/docs/Athos - Carpeta de proyecto/planilla de riesgos.xlsx
+++ b/docs/Athos - Carpeta de proyecto/planilla de riesgos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santo\Documents\Integracion de Sistemas\is\docs\Athos - Carpeta de proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31464540\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18913946-137A-4796-B7EF-DA4B8F025770}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -180,12 +179,114 @@
   </si>
   <si>
     <t>Reajuste del alcance del sprint conforme se va desarrollando y nuevas funcionalidades se agregan o se eliminan. Medición de tiempos de cada tarea en cada sprint para ir ajustando las estimaciones.</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>Corte de luz</t>
+  </si>
+  <si>
+    <t>Guardar resultados parciales del test cada 10 minutos o 5 preguntas, dependiendo de lo que suceda primero</t>
+  </si>
+  <si>
+    <t>Riesgo del producto</t>
+  </si>
+  <si>
+    <t>Demora la toma del test</t>
+  </si>
+  <si>
+    <t>R08</t>
+  </si>
+  <si>
+    <t>Diseño poco intuitivo</t>
+  </si>
+  <si>
+    <t>El diseño de la aplicación resulta confuso para el paciente</t>
+  </si>
+  <si>
+    <t>Posibilidad de que el profesional vuelva a habilitar la/s pregunta/s al paciente</t>
+  </si>
+  <si>
+    <t>R009</t>
+  </si>
+  <si>
+    <t>Error en la base de datos</t>
+  </si>
+  <si>
+    <t>Se realizaran copias de seguridad de la base de datos de manera regular</t>
+  </si>
+  <si>
+    <t>Variable, puede suponer una catástrofe, o un simple retrabajo</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>El paciente se equivoca al cargar sus datos personales</t>
+  </si>
+  <si>
+    <t>Se le permitira al profesional editar los datos del paciente (previa solicitud del paciente)</t>
+  </si>
+  <si>
+    <t>Puede derivar en un malentendido a la hora de querer asociar un diagnostico con un paciente</t>
+  </si>
+  <si>
+    <t>Carga de datos personales erróneos</t>
+  </si>
+  <si>
+    <t>El suministro eléctrico falla durante la toma de un test</t>
+  </si>
+  <si>
+    <t>Se corrompe la base de datos perdiéndose todos los registros</t>
+  </si>
+  <si>
+    <t>Diseño minimalista y permitir la edición del test cuando el protocolo del mismo permita</t>
+  </si>
+  <si>
+    <t>Se le solicita al paciente una confirmacion de los datos antes de empezar el test mediante una ventana de confirmación</t>
+  </si>
+  <si>
+    <t>Se retoma el test desde la última pregunta guardada</t>
+  </si>
+  <si>
+    <t>Se restaura la última copia de seguridad  que se realizo con éxito</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>El paciente cierra el navegador</t>
+  </si>
+  <si>
+    <t>El paciente cierra el navegador antes de finalizar con el/los test/s</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Falla el sistema operativo</t>
+  </si>
+  <si>
+    <t>El sistema operativo donde se esta ejecutando el test falla súbitamente</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>El paciente presiona el boton 'siguiente' mas de una vez y debido a un retraso en el refresco de la pantalla, ciertas preguntas son salteadas</t>
+  </si>
+  <si>
+    <t>Se saltean preguntas</t>
+  </si>
+  <si>
+    <t>Se aplicara un retraso de medio segundo antes de habilitar los botones de respuesta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -248,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -276,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,28 +762,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1"/>
     <col min="2" max="2" width="17" style="1"/>
-    <col min="3" max="3" width="24.88671875" style="1"/>
-    <col min="4" max="4" width="11.77734375" style="1"/>
-    <col min="5" max="5" width="15.5546875" style="1"/>
-    <col min="6" max="6" width="30.33203125" style="1"/>
-    <col min="7" max="7" width="33.77734375" style="1"/>
-    <col min="8" max="8" width="25.109375" style="1"/>
-    <col min="9" max="9" width="11.21875" style="1"/>
-    <col min="10" max="1025" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="24.85546875" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1"/>
+    <col min="5" max="5" width="15.5703125" style="1"/>
+    <col min="6" max="6" width="30.28515625" style="1"/>
+    <col min="7" max="7" width="33.7109375" style="1"/>
+    <col min="8" max="8" width="25.140625" style="1"/>
+    <col min="9" max="9" width="11.28515625" style="1"/>
+    <col min="10" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -737,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -766,7 +873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -795,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -824,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -853,7 +960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -913,10 +1020,215 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
     </row>
-    <row r="14" spans="1:40" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
